--- a/assets/conversation/Present-Perfect.xlsx
+++ b/assets/conversation/Present-Perfect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Pictures\Jiw\Project\grammar-police-game\testgame\conversation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\OneDrive\เอกสาร\GitHub\testgame\assets\conversation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFD39F3-AA4E-4619-B02A-794FA901DB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47F5396-E22B-4F3A-8800-6272B9A1A2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{043717B8-2880-41BA-A7F0-653D5A6E1C80}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{043717B8-2880-41BA-A7F0-653D5A6E1C80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -54,18 +54,9 @@
     <t>Not much. I've just been studying for my exam. Have you studied yet?</t>
   </si>
   <si>
-    <t>Yes, I have! I've been meaning to try it out. How is it?</t>
-  </si>
-  <si>
-    <t>It's really good! I've been there twice this week.</t>
-  </si>
-  <si>
     <t>No, not recently. But I've been meaning to start a new series.</t>
   </si>
   <si>
-    <t>Have you eaten all the pizza?</t>
-  </si>
-  <si>
     <t>You're not alone! I've been doing the same thing. We should start a support group.</t>
   </si>
   <si>
@@ -94,7 +85,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -104,7 +95,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -126,7 +117,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -136,7 +127,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -152,7 +143,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -162,7 +153,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -184,7 +175,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -194,7 +185,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -213,7 +204,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -223,7 +214,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -242,23 +233,249 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hearing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> about the new restaurant downtown?</t>
-    </r>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> any good books lately?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you learned from your recent vacation?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I've learned to relax and take my time. We've </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so busy lately, and it was nice to unwind.</t>
+    </r>
+  </si>
+  <si>
+    <t>stressed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That's great advice! I've been </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lately too.</t>
+    </r>
+  </si>
+  <si>
+    <t>seen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>am</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>! I've been binge-watching Neetflix and eating pizza for three days straight. Don't judge me.</t>
+    </r>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <r>
+      <t>Have you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> saw </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that cat video online?</t>
+    </r>
+  </si>
+  <si>
+    <t>noticed</t>
+  </si>
+  <si>
+    <r>
+      <t>Have you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that new coffee shop downtown?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yes, I have! And I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> am </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>already been back three times. The coffee is so good!</t>
+    </r>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <r>
+      <t>Me too! I've</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> became</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a regular. The barista knows my name now.</t>
+    </r>
+  </si>
+  <si>
+    <t>played</t>
   </si>
   <si>
     <r>
@@ -268,26 +485,460 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reads</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> any good books lately?</t>
-    </r>
-  </si>
-  <si>
-    <t>finished</t>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>notices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> how weird the weather has been lately?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Absolutely! I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lost count of how many times it's rained and then suddenly cleared up. It's like the weather is playing a joke on us.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Have you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>playing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> any video games recently?</t>
+    </r>
+  </si>
+  <si>
+    <t>given</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oh, yeah! I've been playing that new game nonstop. My friends have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>give</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> up on trying to get me to stop playing.</t>
+    </r>
+  </si>
+  <si>
+    <t>Has</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <r>
+      <t>I know the feeling! I've been stuck on level 5 for weeks now. My friends have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> calling me "Level 5 Annie".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Emma finished her thesis yet?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No, she hasn't. She </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> been working on it for months now.</t>
+    </r>
+  </si>
+  <si>
+    <t>applied</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Has John </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>applying</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to any new jobs recently?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, he </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>! He's applied to three companies this week alone. I've heard he's getting a lot of interviews.</t>
+    </r>
+  </si>
+  <si>
+    <t>That's great news!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actually, she </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>haven't</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. She's been having some issues with her since they moved in together. I've been trying to mediate their disagreements.</t>
+    </r>
+  </si>
+  <si>
+    <t>considered</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sorry to hear that. Has she </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">considering </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>moving out?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Michael practiced his presentation for the conference?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, he has! He's been rehearsing it nonstop and seems pretty confident. I've </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> he's going to crush it.</t>
+    </r>
+  </si>
+  <si>
+    <t>That's great!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Has Rachel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> taking any classes recently?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, she has! She's been taking an online course in graphic design and is really enjoying it. I've </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>see</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> some of her work and it's amazing!</t>
+    </r>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That's impressive! Has she </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>think</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> about starting her own business?</t>
+    </r>
+  </si>
+  <si>
+    <t>error type</t>
+  </si>
+  <si>
+    <t>Have</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Were</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you eaten all the pizza?</t>
+    </r>
   </si>
   <si>
     <r>
@@ -296,108 +947,123 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>finish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> reading a thriller that was amazing. Have you read any thrillers recently?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">What </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>has</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> you learned from your recent vacation?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I've learned to relax and take my time. We've </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>be</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> so busy lately, and it was nice to unwind.</t>
-    </r>
-  </si>
-  <si>
-    <t>stressed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">That's great advice! I've been </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stress</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> lately too.</t>
-    </r>
-  </si>
-  <si>
-    <t>seen</t>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finished</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reading a thriller that was amazing. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you read any thrillers recently?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Oh, yes! I've watched it 12 times today already. I've</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> count of how many times I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>was</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> watched it in total.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Were</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you recycled all the plastic bottles you've been collecting at home?</t>
+    </r>
   </si>
   <si>
     <r>
@@ -407,601 +1073,48 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>am</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>! I've been binge-watching Neetflix and eating pizza for three days straight. Don't judge me.</t>
-    </r>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <r>
-      <t>Have you</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> saw </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>that cat video online?</t>
-    </r>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <r>
-      <t>Oh, yes! I've watched it 12 times today already. I've</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> lose</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> count of how many times I've watched it in total.</t>
-    </r>
-  </si>
-  <si>
-    <t>noticed</t>
-  </si>
-  <si>
-    <r>
-      <t>Have you</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> try</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> that new coffee shop downtown?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Yes, I have! And I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> am </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>already been back three times. The coffee is so good!</t>
-    </r>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <r>
-      <t>Me too! I've</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> became</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a regular. The barista knows my name now.</t>
-    </r>
-  </si>
-  <si>
-    <t>played</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Have you </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>notices</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> how weird the weather has been lately?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Absolutely! I </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">has </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lost count of how many times it's rained and then suddenly cleared up. It's like the weather is playing a joke on us.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Have you </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>playing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> any video games recently?</t>
-    </r>
-  </si>
-  <si>
-    <t>given</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Oh, yeah! I've been playing that new game nonstop. My friends have </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>give</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> up on trying to get me to stop playing.</t>
-    </r>
-  </si>
-  <si>
-    <t>Has</t>
-  </si>
-  <si>
-    <t>started</t>
-  </si>
-  <si>
-    <r>
-      <t>I know the feeling! I've been stuck on level 5 for weeks now. My friends have</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> start</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> calling me "Level 5 Annie".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Have</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Emma finished her thesis yet?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">No, she hasn't. She </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> been working on it for months now.</t>
-    </r>
-  </si>
-  <si>
-    <t>applied</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Has John </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>applying</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to any new jobs recently?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Yes, he </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>have</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>! He's applied to three companies this week alone. I've heard he's getting a lot of interviews.</t>
-    </r>
-  </si>
-  <si>
-    <t>That's great news!</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Actually, she </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>haven't</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. She's been having some issues with her since they moved in together. I've been trying to mediate their disagreements.</t>
-    </r>
-  </si>
-  <si>
-    <t>considered</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sorry to hear that. Has she </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">considering </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>moving out?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Have </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Michael practiced his presentation for the conference?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Yes, he has! He's been rehearsing it nonstop and seems pretty confident. I've </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hear</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> he's going to crush it.</t>
-    </r>
-  </si>
-  <si>
-    <t>That's great!</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Has Rachel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>be</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> taking any classes recently?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Yes, she has! She's been taking an online course in graphic design and is really enjoying it. I've </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>see</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> some of her work and it's amazing!</t>
-    </r>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">That's impressive! Has she </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>think</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> about starting her own business?</t>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>was</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. In fact, I have been recycling regularly for a few months now and have already collected over 50 pounds of plastic.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wow, that's impressive! I have been trying to do the same, but I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>having</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> struggled to find the right bins in my neighborhood.</t>
     </r>
   </si>
 </sst>
@@ -1009,11 +1122,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1021,14 +1134,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1069,7 +1188,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1401,21 +1520,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D581728C-4B56-4EC7-B58E-B802BFBCABAA}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="101" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="79" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="3"/>
     <col min="3" max="3" width="26.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.4140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1431,8 +1551,11 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1441,16 +1564,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3">
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A4" si="0">A2</f>
         <v>1</v>
@@ -1460,16 +1586,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1479,16 +1608,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1497,16 +1629,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" ref="A6:A7" si="3">A5</f>
         <v>2</v>
@@ -1522,10 +1657,13 @@
         <v>-1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1535,16 +1673,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1552,17 +1693,20 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
+      <c r="C8" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="D8" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" ref="A9:A10" si="5">A8</f>
         <v>3</v>
@@ -1572,16 +1716,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D9" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -1591,16 +1738,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -1609,16 +1759,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="66" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" ref="A12:A13" si="7">A11</f>
         <v>4</v>
@@ -1628,16 +1781,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -1647,16 +1803,19 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3">
         <v>-1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1665,16 +1824,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="66" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" ref="A15:A16" si="9">A14</f>
         <v>5</v>
@@ -1684,16 +1846,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3">
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -1703,16 +1868,19 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>6</v>
       </c>
@@ -1720,14 +1888,20 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
+      <c r="C17" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D17" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="66" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" ref="A18:A19" si="11">A17</f>
         <v>6</v>
@@ -1737,16 +1911,19 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -1756,16 +1933,19 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D19" s="3">
         <v>-1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>7</v>
       </c>
@@ -1774,16 +1954,19 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D20" s="3">
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="66" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" ref="A21:A22" si="13">A20</f>
         <v>7</v>
@@ -1793,16 +1976,19 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -1812,16 +1998,19 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D22" s="3">
         <v>-1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>8</v>
       </c>
@@ -1830,16 +2019,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D23" s="3">
         <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <f t="shared" ref="A24:A25" si="15">A23</f>
         <v>8</v>
@@ -1849,16 +2041,19 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D24" s="3">
         <v>5</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <f t="shared" si="15"/>
         <v>8</v>
@@ -1868,16 +2063,19 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D25" s="3">
         <v>3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>9</v>
       </c>
@@ -1886,16 +2084,19 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="82.5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f t="shared" ref="A27:A28" si="17">A26</f>
         <v>9</v>
@@ -1905,16 +2106,19 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D27" s="3">
         <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" si="17"/>
         <v>9</v>
@@ -1924,16 +2128,19 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="3">
         <v>-1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>10</v>
       </c>
@@ -1942,16 +2149,19 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D29" s="3">
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <f t="shared" ref="A30:A31" si="19">A29</f>
         <v>10</v>
@@ -1961,16 +2171,19 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D30" s="3">
         <v>12</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="66" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -1980,16 +2193,19 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D31" s="3">
         <v>17</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>11</v>
       </c>
@@ -1998,16 +2214,19 @@
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <f t="shared" ref="A33:A34" si="21">A32</f>
         <v>11</v>
@@ -2017,16 +2236,19 @@
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D33" s="3">
         <v>4</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <f t="shared" si="21"/>
         <v>11</v>
@@ -2036,16 +2258,19 @@
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D34" s="3">
         <v>-1</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>12</v>
       </c>
@@ -2054,16 +2279,19 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D35" s="3">
         <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="66" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <f t="shared" ref="A36:A37" si="23">A35</f>
         <v>12</v>
@@ -2073,16 +2301,19 @@
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D36" s="3">
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <f t="shared" si="23"/>
         <v>12</v>
@@ -2092,16 +2323,19 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D37" s="3">
         <v>-1</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="F37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>13</v>
       </c>
@@ -2110,16 +2344,19 @@
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D38" s="3">
         <v>-1</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="82.5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <f t="shared" ref="A39:A40" si="25">A38</f>
         <v>13</v>
@@ -2129,16 +2366,19 @@
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D39" s="3">
         <v>2</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -2148,16 +2388,19 @@
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D40" s="3">
         <v>6</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>14</v>
       </c>
@@ -2166,16 +2409,19 @@
         <v>1</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="66" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <f t="shared" ref="A42:A43" si="27">A41</f>
         <v>14</v>
@@ -2185,16 +2431,19 @@
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D42" s="3">
         <v>13</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <f t="shared" si="27"/>
         <v>14</v>
@@ -2204,16 +2453,19 @@
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D43" s="3">
         <v>-1</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>15</v>
       </c>
@@ -2222,16 +2474,19 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D44" s="3">
         <v>2</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="82.5" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <f t="shared" ref="A45:A46" si="29">A44</f>
         <v>15</v>
@@ -2241,16 +2496,19 @@
         <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D45" s="3">
         <v>18</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <f t="shared" si="29"/>
         <v>15</v>
@@ -2260,13 +2518,16 @@
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D46" s="3">
         <v>4</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
